--- a/src/main/java/com/automationtesting/repo/TestData.xlsx
+++ b/src/main/java/com/automationtesting/repo/TestData.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
